--- a/data/trans_camb/P44D-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P44D-Dificultad-trans_camb.xlsx
@@ -641,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.242126071898021</v>
+        <v>-8.789453154289836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-17.83293090237878</v>
+        <v>-17.89312486500197</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.564892167947991</v>
+        <v>-6.36132924682348</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.44889043680525</v>
+        <v>-9.316534709067643</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.94338708186886</v>
+        <v>10.15000847603195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.18063643759334</v>
+        <v>8.331876835277747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.58528501488489</v>
+        <v>16.35788581981481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.774326197328307</v>
+        <v>0.7636852472357152</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.145549305282224</v>
+        <v>7.420653446184473</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.090792921599153</v>
+        <v>1.347424070523531</v>
       </c>
     </row>
     <row r="7">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.47019306438189</v>
+        <v>-8.611579159414323</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-22.04301740692313</v>
+        <v>-18.5757596600591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-30.25401797305808</v>
+        <v>-30.63582198403126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-33.32359375696505</v>
+        <v>-33.11535794024677</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.48903498841639</v>
+        <v>-12.68120993295821</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-20.99651598417357</v>
+        <v>-21.57293691889762</v>
       </c>
     </row>
     <row r="12">
@@ -801,22 +801,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.04437477601072</v>
+        <v>22.0768154443769</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.055460190714455</v>
+        <v>1.428488640041581</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.093944049028974</v>
+        <v>3.587216574382329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.769130822945034</v>
+        <v>-1.921231164145754</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.324293189430922</v>
+        <v>10.63182161105088</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.230062269304023</v>
+        <v>-2.546670294420495</v>
       </c>
     </row>
     <row r="13">
@@ -853,20 +853,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.564919153738128</v>
+        <v>-0.6450256811332137</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9668125612249991</v>
+        <v>-0.9621861560003544</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.9791664258002201</v>
+        <v>-0.9826929997682171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7194796882393799</v>
+        <v>-0.6990484173928443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9288531027795521</v>
+        <v>-0.930728888054295</v>
       </c>
     </row>
     <row r="15">
@@ -877,18 +877,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8.431565510386955</v>
-      </c>
-      <c r="D15" s="6" t="inlineStr"/>
+        <v>8.700254226774973</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.10750311810713</v>
+      </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>-0.3604888848135008</v>
+        <v>-0.4146669774878752</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.604617369125137</v>
+        <v>1.728678756460124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3105288335587421</v>
+        <v>-0.4567999080470704</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +914,7 @@
         <v>-4.12564658421763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-18.25346685845346</v>
+        <v>-18.25346685845345</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01187777990983296</v>
@@ -929,22 +931,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.202032293014383</v>
+        <v>-7.042620959585963</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.42080741048995</v>
+        <v>-7.942678406853363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-30.3466723609912</v>
+        <v>-29.88627615529195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-42.6607909472663</v>
+        <v>-43.35674884273109</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.72293758205375</v>
+        <v>-16.44671914852862</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-19.88969173321573</v>
+        <v>-19.10795536005061</v>
       </c>
     </row>
     <row r="18">
@@ -955,22 +957,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.70657021364424</v>
+        <v>14.30610809162439</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.35183576283522</v>
+        <v>10.10292605306445</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.06005790406721</v>
+        <v>21.26795175699032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.5057980197457745</v>
+        <v>-0.5905412414224223</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.72316313845356</v>
+        <v>12.79615110148944</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.066973953302309</v>
+        <v>4.197670506425453</v>
       </c>
     </row>
     <row r="19">
@@ -990,7 +992,7 @@
         <v>-0.1496666092089071</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.6621833536257599</v>
+        <v>-0.6621833536257596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0008479266599043637</v>
@@ -1009,16 +1011,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.7642442415562262</v>
+        <v>-0.7841221644095466</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.846437104231994</v>
+        <v>-0.8542169336423789</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.655934249553073</v>
+        <v>-0.6774979578491352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7223341205297107</v>
+        <v>-0.7068787065400304</v>
       </c>
     </row>
     <row r="21">
@@ -1031,16 +1033,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>2.031959190897068</v>
+        <v>1.958499156220141</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01556590891169844</v>
+        <v>-0.04071406357794158</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.239377853080236</v>
+        <v>2.255283034979802</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6986893082771169</v>
+        <v>1.02722571924792</v>
       </c>
     </row>
     <row r="22">
@@ -1070,7 +1072,7 @@
         <v>-11.35922591398265</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-21.04299945617933</v>
+        <v>-21.04299945617932</v>
       </c>
     </row>
     <row r="23">
@@ -1081,22 +1083,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-36.82596798388907</v>
+        <v>-41.40053684519773</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-50.11183561106304</v>
+        <v>-49.89504873058408</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-50.30811401233333</v>
+        <v>-47.8173865392173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-46.32017447671747</v>
+        <v>-44.39551413855781</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-33.29851047687888</v>
+        <v>-33.4283090319865</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-38.82098213263009</v>
+        <v>-40.95013169942034</v>
       </c>
     </row>
     <row r="24">
@@ -1107,22 +1109,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.54091527484372</v>
+        <v>17.43447174069672</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.7360815313988023</v>
+        <v>-1.543334143405709</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.225247101805715</v>
+        <v>12.90232653899038</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.541459560282112</v>
+        <v>6.586901339639144</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.6343972800302</v>
+        <v>8.079093832751452</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.358736052752075</v>
+        <v>-4.491093450258898</v>
       </c>
     </row>
     <row r="25">
@@ -1136,7 +1138,7 @@
         <v>-0.2060125307584752</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.5500593061909573</v>
+        <v>-0.5500593061909572</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.5974761545910559</v>
@@ -1159,20 +1161,20 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6248203060243108</v>
+        <v>-0.6663538557098088</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7491115089770558</v>
+        <v>-0.7487381368361012</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7904621216724147</v>
+        <v>-0.7774287962663896</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6356149835266908</v>
+        <v>-0.644908145594646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7102696748183107</v>
+        <v>-0.7177794247708795</v>
       </c>
     </row>
     <row r="27">
@@ -1183,20 +1185,20 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9045951726282349</v>
+        <v>0.720538485811219</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01689939643753216</v>
+        <v>-0.02760255750680923</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>0.3513164237880214</v>
+        <v>0.7927633969399241</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4232244842585284</v>
+        <v>0.385137832210366</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1633926602278289</v>
+        <v>-0.17691505292891</v>
       </c>
     </row>
     <row r="28">
@@ -1237,22 +1239,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.294069495041132</v>
+        <v>-8.791516571318899</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.67381647776824</v>
+        <v>-12.23835045617838</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.79021914491445</v>
+        <v>-16.74956350151189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-20.25075877947964</v>
+        <v>-20.4662396756037</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.585044199752103</v>
+        <v>-9.699123209261867</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.59724392153071</v>
+        <v>-13.20555646117604</v>
       </c>
     </row>
     <row r="30">
@@ -1263,22 +1265,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.43808350827909</v>
+        <v>10.07905498642574</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.638793176296554</v>
+        <v>3.311575276207819</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.220124803587739</v>
+        <v>3.156113725437569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.201905903129576</v>
+        <v>-3.191136064919599</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.618585546313101</v>
+        <v>4.510537927394902</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.636163161465099</v>
+        <v>-1.921853661818607</v>
       </c>
     </row>
     <row r="31">
@@ -1315,22 +1317,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4410687692250537</v>
+        <v>-0.4692907476300817</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6001111070060787</v>
+        <v>-0.5920849214794234</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7036024268353063</v>
+        <v>-0.7270327371793792</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7464016836293871</v>
+        <v>-0.7628326496148027</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4844563572304679</v>
+        <v>-0.4922381186896539</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6316573937016632</v>
+        <v>-0.627342304969301</v>
       </c>
     </row>
     <row r="33">
@@ -1341,22 +1343,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.625204207102034</v>
+        <v>1.358342327280491</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5058368234300183</v>
+        <v>0.4535498268534974</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3828325249809503</v>
+        <v>0.3002744307822625</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2472134554094815</v>
+        <v>-0.299102100766559</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4165455160504207</v>
+        <v>0.4134027651850301</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1463399037575801</v>
+        <v>-0.1784083971959208</v>
       </c>
     </row>
     <row r="34">
